--- a/US/data/EIA/PETR/old/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
+++ b/US/data/EIA/PETR/old/Table_9.4_Retail_Motor_Gasoline_and_On-Highway_Diesel_Fuel_Prices.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>December 2021 Monthly Energy Review</t>
+    <t>February 2022 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: December 22, 2021</t>
+    <t>Release Date: February 24, 2022</t>
   </si>
   <si>
-    <t>Next Update: January 27, 2022</t>
+    <t>Next Update: March 29, 2022</t>
   </si>
   <si>
     <t>Table 9.4 Retail Motor Gasoline and On-Highway Diesel Fuel Prices</t>
@@ -476,7 +476,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I599"/>
+  <dimension ref="A1:I601"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -17603,6 +17603,64 @@
       </c>
       <c r="I599">
         <v>3.727</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" s="6">
+        <v>44531</v>
+      </c>
+      <c r="B600" t="s">
+        <v>16</v>
+      </c>
+      <c r="C600">
+        <v>3.408</v>
+      </c>
+      <c r="D600">
+        <v>4.1</v>
+      </c>
+      <c r="E600">
+        <v>3.505</v>
+      </c>
+      <c r="F600">
+        <v>3.168</v>
+      </c>
+      <c r="G600">
+        <v>3.608</v>
+      </c>
+      <c r="H600">
+        <v>3.307</v>
+      </c>
+      <c r="I600">
+        <v>3.641</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" s="6">
+        <v>44562</v>
+      </c>
+      <c r="B601" t="s">
+        <v>16</v>
+      </c>
+      <c r="C601">
+        <v>3.413</v>
+      </c>
+      <c r="D601">
+        <v>4.102</v>
+      </c>
+      <c r="E601">
+        <v>3.5</v>
+      </c>
+      <c r="F601">
+        <v>3.187</v>
+      </c>
+      <c r="G601">
+        <v>3.595</v>
+      </c>
+      <c r="H601">
+        <v>3.315</v>
+      </c>
+      <c r="I601">
+        <v>3.724</v>
       </c>
     </row>
   </sheetData>
